--- a/aiurt-module-system/src/main/resources/templates/inspectionCode.xlsx
+++ b/aiurt-module-system/src/main/resources/templates/inspectionCode.xlsx
@@ -28,7 +28,7 @@
     <t>*检修标准表名称</t>
   </si>
   <si>
-    <t>*检修标准表编号</t>
+    <t>检修标准表编码</t>
   </si>
   <si>
     <t>检修周期类型</t>
@@ -264,7 +264,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -274,6 +274,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="10"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.15"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -578,10 +584,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -590,16 +596,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -611,10 +617,10 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -635,28 +641,28 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -665,19 +671,16 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -689,47 +692,47 @@
     <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -737,14 +740,14 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1097,74 +1100,74 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3"/>
   <cols>
     <col min="1" max="1" width="17.7777777777778" customWidth="1"/>
-    <col min="2" max="2" width="20.7777777777778" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.2222222222222" customWidth="1"/>
-    <col min="4" max="4" width="15.3333333333333" customWidth="1"/>
-    <col min="5" max="5" width="14" customWidth="1"/>
-    <col min="6" max="6" width="21.4444444444444" customWidth="1"/>
-    <col min="7" max="7" width="16.8888888888889" customWidth="1"/>
-    <col min="8" max="8" width="22" style="1" customWidth="1"/>
-    <col min="9" max="9" width="14.6666666666667" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.2222222222222" customWidth="1"/>
+    <col min="3" max="3" width="15.3333333333333" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="5" max="5" width="21.4444444444444" customWidth="1"/>
+    <col min="6" max="6" width="18.5555555555556" customWidth="1"/>
+    <col min="7" max="7" width="22" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14.6666666666667" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.8888888888889" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.5" customHeight="1" spans="1:9">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="8"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
     </row>
     <row r="2" ht="63" customHeight="1" spans="1:9">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>7</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="5" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1184,16 +1187,16 @@
       <c r="E4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1202,9 +1205,6 @@
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A2:I2"/>
   </mergeCells>
-  <dataValidations count="1">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4"/>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/aiurt-module-system/src/main/resources/templates/inspectionCode.xlsx
+++ b/aiurt-module-system/src/main/resources/templates/inspectionCode.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420"/>
+    <workbookView windowWidth="22368" windowHeight="9300"/>
   </bookViews>
   <sheets>
     <sheet name="检修标准导入错误清单" sheetId="1" r:id="rId1"/>
@@ -726,9 +726,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -748,6 +751,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1100,7 +1106,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="I3" sqref="I$1:I$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3"/>
@@ -1113,81 +1119,81 @@
     <col min="6" max="6" width="18.5555555555556" customWidth="1"/>
     <col min="7" max="7" width="22" style="1" customWidth="1"/>
     <col min="8" max="8" width="14.6666666666667" style="1" customWidth="1"/>
-    <col min="9" max="9" width="14.8888888888889" customWidth="1"/>
+    <col min="9" max="9" width="14.8888888888889" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.5" customHeight="1" spans="1:9">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="9"/>
     </row>
     <row r="2" ht="63" customHeight="1" spans="1:9">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="8" t="s">
         <v>16</v>
       </c>
       <c r="G4" s="1" t="s">
@@ -1196,7 +1202,7 @@
       <c r="H4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="2" t="s">
         <v>19</v>
       </c>
     </row>
